--- a/0627测试结果.xlsx
+++ b/0627测试结果.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="技能词" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484">
   <si>
     <t>产品经理</t>
   </si>
@@ -1286,6 +1287,189 @@
   </si>
   <si>
     <t>做事认真</t>
+  </si>
+  <si>
+    <t>axcure</t>
+  </si>
+  <si>
+    <t>excel函</t>
+  </si>
+  <si>
+    <t>mybati</t>
+  </si>
+  <si>
+    <t>react技术栈</t>
+  </si>
+  <si>
+    <t>逻辑思考力</t>
+  </si>
+  <si>
+    <t>人力资源六大板块内容</t>
+  </si>
+  <si>
+    <t>数据变化敏感度</t>
+  </si>
+  <si>
+    <t>法律专业知识</t>
+  </si>
+  <si>
+    <t>html5css</t>
+  </si>
+  <si>
+    <t>1年以上工作经验</t>
+  </si>
+  <si>
+    <t>抗压性</t>
+  </si>
+  <si>
+    <t>类似产品开发经验</t>
+  </si>
+  <si>
+    <t>亲和؜力</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>人际关系敏感度</t>
+  </si>
+  <si>
+    <t>多线程处理</t>
+  </si>
+  <si>
+    <t>互联网产品</t>
+  </si>
+  <si>
+    <t>web前端</t>
+  </si>
+  <si>
+    <t>分析总结</t>
+  </si>
+  <si>
+    <t>化办公软件</t>
+  </si>
+  <si>
+    <t>typescript语法5</t>
+  </si>
+  <si>
+    <t>沟通表达理</t>
+  </si>
+  <si>
+    <t>运营分析</t>
+  </si>
+  <si>
+    <t>java开发</t>
+  </si>
+  <si>
+    <t>浏览器端</t>
+  </si>
+  <si>
+    <t>word文档</t>
+  </si>
+  <si>
+    <t>offic办公软件</t>
+  </si>
+  <si>
+    <t>ppt操作</t>
+  </si>
+  <si>
+    <t>基础理论知识</t>
+  </si>
+  <si>
+    <t>国家劳动法规</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>高度额责任心</t>
+  </si>
+  <si>
+    <t>前端基础</t>
+  </si>
+  <si>
+    <t>审美力</t>
+  </si>
+  <si>
+    <t>国家政策</t>
+  </si>
+  <si>
+    <t>游戏产品</t>
+  </si>
+  <si>
+    <t>微服务</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>gulp</t>
+  </si>
+  <si>
+    <t>事业心</t>
+  </si>
+  <si>
+    <t>人力资源管理思维</t>
+  </si>
+  <si>
+    <t>创新意思</t>
+  </si>
+  <si>
+    <t>git操作</t>
+  </si>
+  <si>
+    <t>主动性</t>
+  </si>
+  <si>
+    <t>自驱动力</t>
+  </si>
+  <si>
+    <t>型关系型数据库</t>
+  </si>
+  <si>
+    <t>mvvm架构</t>
+  </si>
+  <si>
+    <t>正形象气质</t>
+  </si>
+  <si>
+    <t>python程序</t>
+  </si>
+  <si>
+    <t>易用性</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>外延产品知识</t>
+  </si>
+  <si>
+    <t>专业知识</t>
+  </si>
+  <si>
+    <t>网络游戏</t>
+  </si>
+  <si>
+    <t>springmvcspringboot</t>
+  </si>
+  <si>
+    <t>offer知识</t>
+  </si>
+  <si>
+    <t>用户导向产品意识</t>
+  </si>
+  <si>
+    <t>听说读写</t>
+  </si>
+  <si>
+    <t>时尚敏感性</t>
+  </si>
+  <si>
+    <t>java多线程</t>
+  </si>
+  <si>
+    <t>8新特性</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1477,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1329,10 +1513,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1345,7 +1530,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1360,9 +1568,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1370,12 +1585,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1383,9 +1599,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,52 +1629,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1466,6 +1650,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1478,7 +1668,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1764,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,85 +1812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,55 +1824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,15 +1835,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1682,16 +1857,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,11 +1879,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,17 +1916,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,28 +1940,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -1786,64 +1970,64 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -1852,28 +2036,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1882,22 +2066,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6723,8 +6907,8 @@
   <sheetPr/>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -6735,10 +6919,10 @@
     <col min="14" max="15" width="19.7142857142857" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.7142857142857" style="1" customWidth="1"/>
     <col min="19" max="19" width="36.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22.1428571428571" customWidth="1"/>
-    <col min="23" max="23" width="24.5" customWidth="1"/>
-    <col min="25" max="25" width="24.5" customWidth="1"/>
-    <col min="27" max="27" width="19.7142857142857" customWidth="1"/>
+    <col min="21" max="21" width="22.1428571428571" style="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -8586,4 +8770,1190 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="17.3571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="11" max="11" width="22.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="19.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2">
+        <v>392.369881959615</v>
+      </c>
+      <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2">
+        <v>626.703046259114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2">
+        <v>1625.52481781206</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>254.048864575102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2">
+        <v>841.784092577491</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>430.234945505133</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2">
+        <v>370.712171772021</v>
+      </c>
+      <c r="O2" t="s">
+        <v>425</v>
+      </c>
+      <c r="P2">
+        <v>2904.71246630398</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2">
+        <v>8172.20722110928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3">
+        <v>227.527994966165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3">
+        <v>334.347515394449</v>
+      </c>
+      <c r="E3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3">
+        <v>1504.87433489571</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>212.239246748896</v>
+      </c>
+      <c r="I3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3">
+        <v>763.584469932174</v>
+      </c>
+      <c r="K3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3">
+        <v>264.997126550506</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3">
+        <v>325.052849371745</v>
+      </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3">
+        <v>2432.56796426088</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>331</v>
+      </c>
+      <c r="R3">
+        <v>4417.38508599169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4">
+        <v>129.829890188798</v>
+      </c>
+      <c r="C4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4">
+        <v>236.350242194745</v>
+      </c>
+      <c r="E4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4">
+        <v>1484.54017990411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H4">
+        <v>89.2988814142395</v>
+      </c>
+      <c r="I4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4">
+        <v>535.381606941153</v>
+      </c>
+      <c r="K4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L4">
+        <v>239.953865314451</v>
+      </c>
+      <c r="M4" t="s">
+        <v>348</v>
+      </c>
+      <c r="N4">
+        <v>266.152107694603</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4">
+        <v>1874.83932259037</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>431</v>
+      </c>
+      <c r="R4">
+        <v>3497.77280139104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5">
+        <v>114.750833429135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>161.067207072981</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5">
+        <v>1036.98312357781</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>84.4066620506585</v>
+      </c>
+      <c r="I5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5">
+        <v>529.004891113554</v>
+      </c>
+      <c r="K5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5">
+        <v>234.757555569968</v>
+      </c>
+      <c r="M5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N5">
+        <v>230.436251200433</v>
+      </c>
+      <c r="O5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5">
+        <v>1445.72792999726</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>354</v>
+      </c>
+      <c r="R5">
+        <v>2474.38339329311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6">
+        <v>104.056930753787</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6">
+        <v>156.009125098202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6">
+        <v>886.686134263166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6">
+        <v>78.2781845242525</v>
+      </c>
+      <c r="I6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J6">
+        <v>504.11355025287</v>
+      </c>
+      <c r="K6" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6">
+        <v>207.926737635277</v>
+      </c>
+      <c r="M6" t="s">
+        <v>427</v>
+      </c>
+      <c r="N6">
+        <v>201.883467767903</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6">
+        <v>1287.16468761547</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>436</v>
+      </c>
+      <c r="R6">
+        <v>2249.90404883675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7">
+        <v>103.529650671385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7">
+        <v>120.236974994785</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7">
+        <v>690.198339191523</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7">
+        <v>73.6520269911198</v>
+      </c>
+      <c r="I7" t="s">
+        <v>437</v>
+      </c>
+      <c r="J7">
+        <v>461.614207774973</v>
+      </c>
+      <c r="K7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L7">
+        <v>176.519820108981</v>
+      </c>
+      <c r="M7" t="s">
+        <v>342</v>
+      </c>
+      <c r="N7">
+        <v>188.14638944595</v>
+      </c>
+      <c r="O7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P7">
+        <v>1168.94331242686</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>283</v>
+      </c>
+      <c r="R7">
+        <v>2049.09291679343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>98.8130281909577</v>
+      </c>
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8">
+        <v>119.299493479834</v>
+      </c>
+      <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8">
+        <v>670.324333262672</v>
+      </c>
+      <c r="G8" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8">
+        <v>69.2491472353504</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>383.30207065327</v>
+      </c>
+      <c r="K8" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8">
+        <v>118.166079958307</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8">
+        <v>156.788657871625</v>
+      </c>
+      <c r="O8" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8">
+        <v>1001.97075084849</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>440</v>
+      </c>
+      <c r="R8">
+        <v>1814.59805461898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9">
+        <v>97.590397746913</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>118.842005850426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9">
+        <v>570.793945884374</v>
+      </c>
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9">
+        <v>67.5253296405268</v>
+      </c>
+      <c r="I9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9">
+        <v>378.701798176447</v>
+      </c>
+      <c r="K9" t="s">
+        <v>441</v>
+      </c>
+      <c r="L9">
+        <v>115.809889985793</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>152.870973952044</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9">
+        <v>799.797446511099</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9">
+        <v>1646.35218092094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10">
+        <v>91.6459738402848</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>114.102129970863</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10">
+        <v>534.12516039038</v>
+      </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10">
+        <v>60.6004323293523</v>
+      </c>
+      <c r="I10" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10">
+        <v>339.668503153518</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10">
+        <v>78.2816527544051</v>
+      </c>
+      <c r="M10" t="s">
+        <v>375</v>
+      </c>
+      <c r="N10">
+        <v>126.539532969119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10">
+        <v>759.453523244863</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>443</v>
+      </c>
+      <c r="R10">
+        <v>1606.39522512432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>91.375931826195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>106.683123700574</v>
+      </c>
+      <c r="E11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11">
+        <v>470.803352106104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11">
+        <v>55.8253999697485</v>
+      </c>
+      <c r="I11" t="s">
+        <v>444</v>
+      </c>
+      <c r="J11">
+        <v>288.498842112857</v>
+      </c>
+      <c r="K11" t="s">
+        <v>361</v>
+      </c>
+      <c r="L11">
+        <v>74.9463675746423</v>
+      </c>
+      <c r="M11" t="s">
+        <v>445</v>
+      </c>
+      <c r="N11">
+        <v>124.846861426569</v>
+      </c>
+      <c r="O11" t="s">
+        <v>446</v>
+      </c>
+      <c r="P11">
+        <v>758.997745392049</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>447</v>
+      </c>
+      <c r="R11">
+        <v>1549.30619691004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12">
+        <v>82.9116950812506</v>
+      </c>
+      <c r="C12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12">
+        <v>102.626284814687</v>
+      </c>
+      <c r="E12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12">
+        <v>470.786779567465</v>
+      </c>
+      <c r="G12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12">
+        <v>55.3496307314437</v>
+      </c>
+      <c r="I12" t="s">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>285.705107059106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12">
+        <v>70.6418450637243</v>
+      </c>
+      <c r="M12" t="s">
+        <v>382</v>
+      </c>
+      <c r="N12">
+        <v>120.679754846645</v>
+      </c>
+      <c r="O12" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12">
+        <v>736.760838406202</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>391</v>
+      </c>
+      <c r="R12">
+        <v>1342.79870833814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13">
+        <v>75.3916450158488</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D13">
+        <v>98.1763835742445</v>
+      </c>
+      <c r="E13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13">
+        <v>467.995435505676</v>
+      </c>
+      <c r="G13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13">
+        <v>54.5779467898223</v>
+      </c>
+      <c r="I13" t="s">
+        <v>452</v>
+      </c>
+      <c r="J13">
+        <v>274.293576480339</v>
+      </c>
+      <c r="K13" t="s">
+        <v>351</v>
+      </c>
+      <c r="L13">
+        <v>69.3089125450924</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13">
+        <v>117.591493403719</v>
+      </c>
+      <c r="O13" t="s">
+        <v>453</v>
+      </c>
+      <c r="P13">
+        <v>530.641913666447</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>339</v>
+      </c>
+      <c r="R13">
+        <v>1108.48528281528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <v>72.5605435627302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>96.8121547333425</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <v>460.179293297524</v>
+      </c>
+      <c r="G14" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14">
+        <v>53.1909788379129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>454</v>
+      </c>
+      <c r="J14">
+        <v>254.529788297649</v>
+      </c>
+      <c r="K14" t="s">
+        <v>381</v>
+      </c>
+      <c r="L14">
+        <v>66.0255625040535</v>
+      </c>
+      <c r="M14" t="s">
+        <v>393</v>
+      </c>
+      <c r="N14">
+        <v>111.991898479732</v>
+      </c>
+      <c r="O14" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14">
+        <v>493.46033502332</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>455</v>
+      </c>
+      <c r="R14">
+        <v>856.226475159916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B15">
+        <v>72.5265881701676</v>
+      </c>
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15">
+        <v>95.5959867059844</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>459.020860801983</v>
+      </c>
+      <c r="G15" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15">
+        <v>48.1839556319073</v>
+      </c>
+      <c r="I15" t="s">
+        <v>457</v>
+      </c>
+      <c r="J15">
+        <v>251.182637956787</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15">
+        <v>65.8418771827476</v>
+      </c>
+      <c r="M15" t="s">
+        <v>458</v>
+      </c>
+      <c r="N15">
+        <v>110.515436338893</v>
+      </c>
+      <c r="O15" t="s">
+        <v>459</v>
+      </c>
+      <c r="P15">
+        <v>467.264315475998</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>460</v>
+      </c>
+      <c r="R15">
+        <v>703.781492549406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>69.3268191178968</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16">
+        <v>94.1908381167861</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16">
+        <v>422.117383337619</v>
+      </c>
+      <c r="G16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16">
+        <v>46.3935240864158</v>
+      </c>
+      <c r="I16" t="s">
+        <v>427</v>
+      </c>
+      <c r="J16">
+        <v>240.326506934854</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16">
+        <v>59.667936293588</v>
+      </c>
+      <c r="M16" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16">
+        <v>96.9455486783334</v>
+      </c>
+      <c r="O16" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16">
+        <v>436.882065620281</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>461</v>
+      </c>
+      <c r="R16">
+        <v>672.815955651099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17">
+        <v>68.1484140817386</v>
+      </c>
+      <c r="C17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17">
+        <v>91.4715132525845</v>
+      </c>
+      <c r="E17" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17">
+        <v>410.829557083878</v>
+      </c>
+      <c r="G17" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17">
+        <v>37.5504345044113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>463</v>
+      </c>
+      <c r="J17">
+        <v>212.690282638661</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17">
+        <v>59.3988195737313</v>
+      </c>
+      <c r="M17" t="s">
+        <v>464</v>
+      </c>
+      <c r="N17">
+        <v>89.3661771300317</v>
+      </c>
+      <c r="O17" t="s">
+        <v>465</v>
+      </c>
+      <c r="P17">
+        <v>428.055366375728</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>465</v>
+      </c>
+      <c r="R17">
+        <v>571.913689898431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18">
+        <v>65.8597839927949</v>
+      </c>
+      <c r="C18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18">
+        <v>91.0597550772855</v>
+      </c>
+      <c r="E18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18">
+        <v>389.90881337208</v>
+      </c>
+      <c r="G18" t="s">
+        <v>467</v>
+      </c>
+      <c r="H18">
+        <v>37.3889618809443</v>
+      </c>
+      <c r="I18" t="s">
+        <v>433</v>
+      </c>
+      <c r="J18">
+        <v>210.344113986407</v>
+      </c>
+      <c r="K18" t="s">
+        <v>456</v>
+      </c>
+      <c r="L18">
+        <v>44.9651587360766</v>
+      </c>
+      <c r="M18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N18">
+        <v>82.4694069306253</v>
+      </c>
+      <c r="O18" t="s">
+        <v>468</v>
+      </c>
+      <c r="P18">
+        <v>401.795672156089</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>469</v>
+      </c>
+      <c r="R18">
+        <v>571.252857166636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19">
+        <v>62.5170727492406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19">
+        <v>89.8173678288335</v>
+      </c>
+      <c r="E19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19">
+        <v>388.980973026032</v>
+      </c>
+      <c r="G19" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19">
+        <v>36.1379667239305</v>
+      </c>
+      <c r="I19" t="s">
+        <v>470</v>
+      </c>
+      <c r="J19">
+        <v>202.070576051999</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19">
+        <v>44.5274111795551</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19">
+        <v>81.6344932457046</v>
+      </c>
+      <c r="O19" t="s">
+        <v>471</v>
+      </c>
+      <c r="P19">
+        <v>388.442409432878</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>472</v>
+      </c>
+      <c r="R19">
+        <v>544.041818931814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>61.459388861945</v>
+      </c>
+      <c r="C20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20">
+        <v>89.2112786886457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>474</v>
+      </c>
+      <c r="F20">
+        <v>374.421659158356</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <v>29.5824263820297</v>
+      </c>
+      <c r="I20" t="s">
+        <v>475</v>
+      </c>
+      <c r="J20">
+        <v>189.378262491997</v>
+      </c>
+      <c r="K20" t="s">
+        <v>476</v>
+      </c>
+      <c r="L20">
+        <v>43.3784604477865</v>
+      </c>
+      <c r="M20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20">
+        <v>78.4463409859923</v>
+      </c>
+      <c r="O20" t="s">
+        <v>477</v>
+      </c>
+      <c r="P20">
+        <v>333.421760968734</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>322</v>
+      </c>
+      <c r="R20">
+        <v>539.371944259147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21">
+        <v>60.3724112941954</v>
+      </c>
+      <c r="C21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21">
+        <v>84.9176936146891</v>
+      </c>
+      <c r="E21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F21">
+        <v>371.101615854492</v>
+      </c>
+      <c r="G21" t="s">
+        <v>480</v>
+      </c>
+      <c r="H21">
+        <v>25.4867937354089</v>
+      </c>
+      <c r="I21" t="s">
+        <v>373</v>
+      </c>
+      <c r="J21">
+        <v>188.251482251174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>481</v>
+      </c>
+      <c r="L21">
+        <v>42.8846111608474</v>
+      </c>
+      <c r="M21" t="s">
+        <v>454</v>
+      </c>
+      <c r="N21">
+        <v>60.7586686901546</v>
+      </c>
+      <c r="O21" t="s">
+        <v>482</v>
+      </c>
+      <c r="P21">
+        <v>327.312180586203</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>483</v>
+      </c>
+      <c r="R21">
+        <v>511.098607360999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/0627测试结果.xlsx
+++ b/0627测试结果.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15040"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="技能词" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -31,6 +31,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -38,15 +52,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -55,7 +68,60 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,16 +143,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,67 +153,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +167,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +182,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +254,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,49 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,109 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,17 +376,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,6 +390,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,6 +433,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -440,36 +460,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,148 +478,148 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="31" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="27" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="19" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="12" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="12" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="12" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6997,7 +6997,7 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -9482,81 +9482,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelRow="7"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>沟通合作</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>团队配合意识</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>处事灵活</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>品格端正</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>做事认真</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>人际沟通</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>形象气质</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>逻辑清晰</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9625,7 +9550,7 @@
           <t>游戏策划</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>游戏策划</t>
         </is>
@@ -9710,15 +9635,15 @@
         </is>
       </c>
       <c r="T2" s="0" t="n">
-        <v>139.4894188025444</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>139.489418802544</v>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
         <is>
           <t>部分产品</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>64.72376733509641</v>
+      <c r="V2" s="0" t="n">
+        <v>64.7237673350964</v>
       </c>
     </row>
     <row r="3">
@@ -9800,15 +9725,15 @@
         </is>
       </c>
       <c r="T3" s="0" t="n">
-        <v>113.5666180218496</v>
-      </c>
-      <c r="U3" t="inlineStr">
+        <v>113.56661802185</v>
+      </c>
+      <c r="U3" s="0" t="inlineStr">
         <is>
           <t>口头表达流</t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>59.22092575755289</v>
+      <c r="V3" s="0" t="n">
+        <v>59.2209257575529</v>
       </c>
     </row>
     <row r="4">
@@ -9890,15 +9815,15 @@
         </is>
       </c>
       <c r="T4" s="0" t="n">
-        <v>99.77739028864782</v>
-      </c>
-      <c r="U4" t="inlineStr">
+        <v>99.77739028864779</v>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
         <is>
           <t>运营分析</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>45.96157174879963</v>
+      <c r="V4" s="0" t="n">
+        <v>45.9615717487996</v>
       </c>
     </row>
     <row r="5">
@@ -9980,15 +9905,15 @@
         </is>
       </c>
       <c r="T5" s="0" t="n">
-        <v>81.60839384969051</v>
-      </c>
-      <c r="U5" t="inlineStr">
+        <v>81.6083938496905</v>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
         <is>
           <t>持久力爆表</t>
         </is>
       </c>
-      <c r="V5" t="n">
-        <v>41.27565566980626</v>
+      <c r="V5" s="0" t="n">
+        <v>41.2756556698063</v>
       </c>
     </row>
     <row r="6">
@@ -10070,15 +9995,15 @@
         </is>
       </c>
       <c r="T6" s="0" t="n">
-        <v>68.00699487474208</v>
-      </c>
-      <c r="U6" t="inlineStr">
+        <v>68.00699487474211</v>
+      </c>
+      <c r="U6" s="0" t="inlineStr">
         <is>
           <t>游戏行业充满激情</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>34.39637972483854</v>
+      <c r="V6" s="0" t="n">
+        <v>34.3963797248385</v>
       </c>
     </row>
     <row r="7">
@@ -10160,15 +10085,15 @@
         </is>
       </c>
       <c r="T7" s="0" t="n">
-        <v>54.88645343931204</v>
-      </c>
-      <c r="U7" t="inlineStr">
+        <v>54.886453439312</v>
+      </c>
+      <c r="U7" s="0" t="inlineStr">
         <is>
           <t>逻辑思考力</t>
         </is>
       </c>
-      <c r="V7" t="n">
-        <v>30.94166211184281</v>
+      <c r="V7" s="0" t="n">
+        <v>30.9416621118428</v>
       </c>
     </row>
     <row r="8">
@@ -10250,15 +10175,15 @@
         </is>
       </c>
       <c r="T8" s="0" t="n">
-        <v>52.34477787328635</v>
-      </c>
-      <c r="U8" t="inlineStr">
+        <v>52.3447778732863</v>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
         <is>
           <t>1年以上工作经验</t>
         </is>
       </c>
-      <c r="V8" t="n">
-        <v>29.99956201987299</v>
+      <c r="V8" s="0" t="n">
+        <v>29.999562019873</v>
       </c>
     </row>
     <row r="9">
@@ -10340,15 +10265,15 @@
         </is>
       </c>
       <c r="T9" s="0" t="n">
-        <v>51.00524615605656</v>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>51.0052461560566</v>
+      </c>
+      <c r="U9" s="0" t="inlineStr">
         <is>
           <t>市场分析</t>
         </is>
       </c>
-      <c r="V9" t="n">
-        <v>29.12506496184577</v>
+      <c r="V9" s="0" t="n">
+        <v>29.1250649618458</v>
       </c>
     </row>
     <row r="10">
@@ -10430,15 +10355,15 @@
         </is>
       </c>
       <c r="T10" s="0" t="n">
-        <v>48.57642491053006</v>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>48.5764249105301</v>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
         <is>
           <t>游戏产品</t>
         </is>
       </c>
-      <c r="V10" t="n">
-        <v>28.67660538483242</v>
+      <c r="V10" s="0" t="n">
+        <v>28.6766053848324</v>
       </c>
     </row>
     <row r="11">
@@ -10520,15 +10445,15 @@
         </is>
       </c>
       <c r="T11" s="0" t="n">
-        <v>47.82747540459094</v>
-      </c>
-      <c r="U11" t="inlineStr">
+        <v>47.8274754045909</v>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
         <is>
           <t>产品数据敏感</t>
         </is>
       </c>
-      <c r="V11" t="n">
-        <v>27.76031050519797</v>
+      <c r="V11" s="0" t="n">
+        <v>27.760310505198</v>
       </c>
     </row>
     <row r="12">
@@ -10610,15 +10535,15 @@
         </is>
       </c>
       <c r="T12" s="0" t="n">
-        <v>47.02877367079773</v>
-      </c>
-      <c r="U12" t="inlineStr">
+        <v>47.0287736707977</v>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
         <is>
           <t>易交流</t>
         </is>
       </c>
-      <c r="V12" t="n">
-        <v>26.47478924275452</v>
+      <c r="V12" s="0" t="n">
+        <v>26.4747892427545</v>
       </c>
     </row>
     <row r="13">
@@ -10700,14 +10625,14 @@
         </is>
       </c>
       <c r="T13" s="0" t="n">
-        <v>45.68617159080272</v>
-      </c>
-      <c r="U13" t="inlineStr">
+        <v>45.6861715908027</v>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
         <is>
           <t>善于自我管理</t>
         </is>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="0" t="n">
         <v>25.7972847936289</v>
       </c>
     </row>
@@ -10792,13 +10717,13 @@
       <c r="T14" s="0" t="n">
         <v>45.4681097629663</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="0" t="inlineStr">
         <is>
           <t>思维清晰</t>
         </is>
       </c>
-      <c r="V14" t="n">
-        <v>24.92702855711348</v>
+      <c r="V14" s="0" t="n">
+        <v>24.9270285571135</v>
       </c>
     </row>
     <row r="15">
@@ -10880,15 +10805,15 @@
         </is>
       </c>
       <c r="T15" s="0" t="n">
-        <v>39.76717992413765</v>
-      </c>
-      <c r="U15" t="inlineStr">
+        <v>39.7671799241377</v>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
         <is>
           <t>用户群体需求</t>
         </is>
       </c>
-      <c r="V15" t="n">
-        <v>24.56884266059896</v>
+      <c r="V15" s="0" t="n">
+        <v>24.568842660599</v>
       </c>
     </row>
     <row r="16">
@@ -10970,14 +10895,14 @@
         </is>
       </c>
       <c r="T16" s="0" t="n">
-        <v>34.20583963065143</v>
-      </c>
-      <c r="U16" t="inlineStr">
+        <v>34.2058396306514</v>
+      </c>
+      <c r="U16" s="0" t="inlineStr">
         <is>
           <t>创造性思维</t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="0" t="n">
         <v>18.8815999587073</v>
       </c>
     </row>
@@ -11060,15 +10985,15 @@
         </is>
       </c>
       <c r="T17" s="0" t="n">
-        <v>31.88045959083674</v>
-      </c>
-      <c r="U17" t="inlineStr">
+        <v>31.8804595908367</v>
+      </c>
+      <c r="U17" s="0" t="inlineStr">
         <is>
           <t>文字功底</t>
         </is>
       </c>
-      <c r="V17" t="n">
-        <v>17.75802507561326</v>
+      <c r="V17" s="0" t="n">
+        <v>17.7580250756133</v>
       </c>
     </row>
     <row r="18">
@@ -11150,15 +11075,15 @@
         </is>
       </c>
       <c r="T18" s="0" t="n">
-        <v>22.00019804712056</v>
-      </c>
-      <c r="U18" t="inlineStr">
+        <v>22.0001980471206</v>
+      </c>
+      <c r="U18" s="0" t="inlineStr">
         <is>
           <t>逻辑基础</t>
         </is>
       </c>
-      <c r="V18" t="n">
-        <v>16.59242336089882</v>
+      <c r="V18" s="0" t="n">
+        <v>16.5924233608988</v>
       </c>
     </row>
     <row r="19">
@@ -11240,15 +11165,15 @@
         </is>
       </c>
       <c r="T19" s="0" t="n">
-        <v>16.03974336362238</v>
-      </c>
-      <c r="U19" t="inlineStr">
+        <v>16.0397433636224</v>
+      </c>
+      <c r="U19" s="0" t="inlineStr">
         <is>
           <t>抗压性</t>
         </is>
       </c>
-      <c r="V19" t="n">
-        <v>16.26334293900231</v>
+      <c r="V19" s="0" t="n">
+        <v>16.2633429390023</v>
       </c>
     </row>
     <row r="20">
@@ -11330,15 +11255,15 @@
         </is>
       </c>
       <c r="T20" s="0" t="n">
-        <v>15.77272029397454</v>
-      </c>
-      <c r="U20" t="inlineStr">
+        <v>15.7727202939745</v>
+      </c>
+      <c r="U20" s="0" t="inlineStr">
         <is>
           <t>创造力</t>
         </is>
       </c>
-      <c r="V20" t="n">
-        <v>9.566630102163327</v>
+      <c r="V20" s="0" t="n">
+        <v>9.56663010216333</v>
       </c>
     </row>
     <row r="21">
@@ -11420,15 +11345,15 @@
         </is>
       </c>
       <c r="T21" s="0" t="n">
-        <v>13.03125202470035</v>
-      </c>
-      <c r="U21" t="inlineStr">
+        <v>13.0312520247004</v>
+      </c>
+      <c r="U21" s="0" t="inlineStr">
         <is>
           <t>团队沟通</t>
         </is>
       </c>
-      <c r="V21" t="n">
-        <v>8.642312116260712</v>
+      <c r="V21" s="0" t="n">
+        <v>8.64231211626071</v>
       </c>
     </row>
   </sheetData>
@@ -11447,4 +11372,2059 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Java开发工程师</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>产品经理</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>springboot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>956.684489534946</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>springboot</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1579.47755431235</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>springboot</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4873.37210983019</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>636.4546362594371</v>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1104.77780445213</v>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>mybati</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2904.71246630398</v>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1285.799283346395</v>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>2200.966123710818</v>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>3709.567688093972</v>
+      </c>
+      <c r="S2" s="0" t="inlineStr">
+        <is>
+          <t>同理心</t>
+        </is>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1625.524817812064</v>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
+        <is>
+          <t>axcure</t>
+        </is>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>392.369881959615</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>axcure</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>626.7030462591144</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>636.4546362594371</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1104.77780445213</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>c语言</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4857.55776454449</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>mybati</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>563.1342389568709</v>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>mybati</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1068.01373514368</v>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>2432.56796426088</v>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>636.4546362594373</v>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1104.77780445213</v>
+      </c>
+      <c r="Q3" s="0" t="inlineStr">
+        <is>
+          <t>mybati</t>
+        </is>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2904.712466303981</v>
+      </c>
+      <c r="S3" s="0" t="inlineStr">
+        <is>
+          <t>axcure</t>
+        </is>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1504.87433489571</v>
+      </c>
+      <c r="U3" s="0" t="inlineStr">
+        <is>
+          <t>逻辑思考力</t>
+        </is>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>227.5279949661646</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>逻辑思考力</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>334.3475153944494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>mybatis</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>583.269013463809</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>java基础</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1017.93083159166</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3131.15919075839</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>525.486486779576</v>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>961.918957311314</v>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1874.83932259037</v>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>mybati</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>563.1342389568712</v>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>mybati</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1068.013735143679</v>
+      </c>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1874.839322590371</v>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
+          <t>逻辑思考力</t>
+        </is>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1484.540179904112</v>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>数据变化敏感度</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>129.8298901887978</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>excel函</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v>236.3502421947451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>多线程</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>508.083068074811</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>mybatis</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1015.51881113285</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>mybatis</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3083.57042968585</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>361.527506680618</v>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>657.8332396116861</v>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1445.72792999726</v>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>361.5275066806182</v>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>657.8332396116861</v>
+      </c>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1445.727929997257</v>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t>文档撰写</t>
+        </is>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1036.983123577812</v>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
+        <is>
+          <t>excel函</t>
+        </is>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>114.7508334291353</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>产品设计</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>161.0672070729814</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>java基础</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>486.484526495095</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>多线程</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>976.024098043421</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>java基础</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2825.96456746749</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>多线程处理</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>313.022756264418</v>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>多线程处理</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>604.402704276445</v>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1287.16468761547</v>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>多线程处理</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>313.0227562644182</v>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>多线程处理</t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>604.4027042764451</v>
+      </c>
+      <c r="Q6" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1287.164687615472</v>
+      </c>
+      <c r="S6" s="0" t="inlineStr">
+        <is>
+          <t>类似产品开发经验</t>
+        </is>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>886.6861342631663</v>
+      </c>
+      <c r="U6" s="0" t="inlineStr">
+        <is>
+          <t>抗压性</t>
+        </is>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>104.0569307537874</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>数据变化敏感度</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>156.009125098202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>springmvc</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>425.350061692275</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>782.164798228245</v>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>springmvc</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2579.15281463782</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>290.062440551836</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>573.668306743661</v>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>多线程处理</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1168.94331242686</v>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>290.0624405518357</v>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>573.6683067436608</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>多线程处理</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1168.943312426862</v>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>业务敏感度</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>690.1983391915229</v>
+      </c>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>执行力</t>
+        </is>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>103.5296506713853</v>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>执行力</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>120.2369749947849</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>414.504833645867</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>springmvc</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>737.910496732875</v>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2147.09548470819</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>257.355715777082</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>420.253040269624</v>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1001.97075084849</v>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>257.3557157770817</v>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>420.253040269624</v>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1001.970750848492</v>
+      </c>
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t>excel函</t>
+        </is>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>670.3243332626722</v>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>产品设计</t>
+        </is>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>98.8130281909577</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>互联网产品</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>119.299493479834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>401.163912793499</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>java语言</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>676.089204628566</v>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>多线程</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1894.61407143774</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>199.023994225992</v>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>328.05805444262</v>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>799.797446511099</v>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>199.0239942259922</v>
+      </c>
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>328.0580544426204</v>
+      </c>
+      <c r="Q9" s="0" t="inlineStr">
+        <is>
+          <t>c++</t>
+        </is>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>799.7974465110993</v>
+      </c>
+      <c r="S9" s="0" t="inlineStr">
+        <is>
+          <t>商业思维</t>
+        </is>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>570.793945884374</v>
+      </c>
+      <c r="U9" s="0" t="inlineStr">
+        <is>
+          <t>互联网产品</t>
+        </is>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>97.59039774691304</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>敏捷的洞察力</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>118.8420058504259</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>361.527506680618</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>657.8332396116861</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1874.83932259037</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>146.615350158571</v>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>276.661106133004</v>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>759.453523244863</v>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>146.6153501585715</v>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>276.6611061330044</v>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>759.4535232448632</v>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>执行力</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>534.1251603903803</v>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>同理心</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>91.6459738402848</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>同理心</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>114.1021299708625</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>c语言</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>314.267179088863</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>容器平台(kubernetes</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>569.972514371293</v>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>容器平台(kubernetes</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1382.95290429213</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>python程序</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>132.963875677529</v>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>207.520426622258</v>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>java开发</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>758.997745392049</v>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>python程序</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>132.9638756775294</v>
+      </c>
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>207.5204266222576</v>
+      </c>
+      <c r="Q11" s="0" t="inlineStr">
+        <is>
+          <t>分布式</t>
+        </is>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>736.7608384062019</v>
+      </c>
+      <c r="S11" s="0" t="inlineStr">
+        <is>
+          <t>数据变化敏感度</t>
+        </is>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>470.8033521061043</v>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
+        <is>
+          <t>亲和؜力</t>
+        </is>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>91.37593182619497</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>106.6831237005738</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>容器平台(kubernetes</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>298.953335382008</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>c语言</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>565.340555315856</v>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>沟通合作</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1345.73077437646</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>119.540422519894</v>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>python程序</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>202.053667212276</v>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>分布式</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>736.760838406202</v>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>119.5404225198938</v>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>python程序</t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>202.0536672122755</v>
+      </c>
+      <c r="Q12" s="0" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>530.6419136664468</v>
+      </c>
+      <c r="S12" s="0" t="inlineStr">
+        <is>
+          <t>word文档</t>
+        </is>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>470.786779567465</v>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
+        <is>
+          <t>word文档</t>
+        </is>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>82.91169508125061</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>抗压性</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>102.6262848146867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>259.511935337736</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>491.992772432157</v>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>设计模式</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1287.16468761547</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>git操作</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>115.854364190924</v>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>git操作</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>201.353223169121</v>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>530.641913666447</v>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>git操作</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>115.8543641909239</v>
+      </c>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>git操作</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>201.3532231691208</v>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
+        <is>
+          <t>分布式系统的设计</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>493.4603350233202</v>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
+        <is>
+          <t>基础理论知识</t>
+        </is>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>467.9954355056756</v>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>ppt操作</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>75.39164501584879</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>亲和؜力</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>98.17638357424451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>197.91075295825</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>338.929561676478</v>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>springcloud</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1279.24341285746</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>109.030519658352</v>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>分布式系统的设计</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>191.787865795989</v>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>分布式系统的设计</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>493.46033502332</v>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>109.0305196583519</v>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>分布式系统的设计</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>191.7878657959895</v>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>微服务</t>
+        </is>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>467.2643154759977</v>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>逻辑性</t>
+        </is>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>460.1792932975243</v>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>创造力</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>72.56054356273025</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>逻辑性</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
+        <v>96.81215473334247</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>计算机基础</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>194.015170245563</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>linux</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>316.635114847461</v>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>jvm</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>950.75273461751</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>分布式系统的设计</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>94.6065870889792</v>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>184.609681731383</v>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>微服务</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>467.264315475998</v>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>分布式系统的设计</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>94.6065870889792</v>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>184.6096817313834</v>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>436.8820656202811</v>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>产品设计</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>459.0208608019828</v>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>审美力</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>72.52658817016756</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>五金模具结构</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>95.59598670598442</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>linux</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>189.82605354324</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>sql</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>313.885770157271</v>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>idea开发工具</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>949.2148373760421</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>微服务</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>81.30715081088449</v>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>微服务</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>157.392885297823</v>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>操作系统</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>436.882065620281</v>
+      </c>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>微服务</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>81.30715081088454</v>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>微服务</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>157.3928852978234</v>
+      </c>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>git操作</t>
+        </is>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>428.0553663757278</v>
+      </c>
+      <c r="S16" s="0" t="inlineStr">
+        <is>
+          <t>常用材料特性</t>
+        </is>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>422.1173833376193</v>
+      </c>
+      <c r="U16" s="0" t="inlineStr">
+        <is>
+          <t>逻辑性</t>
+        </is>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>69.32681911789683</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>习惯分析</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>94.19083811678608</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>sql</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>189.273684189791</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>计算机基础</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>311.812079043725</v>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>907.483873245627</v>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>分布式</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>80.12714635053879</v>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>分布式</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>149.093035559511</v>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>git操作</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>428.055366375728</v>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>分布式</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>80.12714635053881</v>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>分布式</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>149.0930355595106</v>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>型关系型数据库</t>
+        </is>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>401.7956721560886</v>
+      </c>
+      <c r="S17" s="0" t="inlineStr">
+        <is>
+          <t>事业心</t>
+        </is>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>410.8295570838779</v>
+      </c>
+      <c r="U17" s="0" t="inlineStr">
+        <is>
+          <t>五金模具结构</t>
+        </is>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>68.14841408173862</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>ppt操作</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>91.47151325258449</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>151.58510244532</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>jvm</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>291.795410004976</v>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>sql</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>872.854000495946</v>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>golang语言</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>77.84241415691061</v>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>golang语言</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>126.345053534067</v>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>型关系型数据库</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>401.795672156089</v>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>golang语言</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>77.84241415691062</v>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>golang语言</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>126.3450535340667</v>
+      </c>
+      <c r="Q18" s="0" t="inlineStr">
+        <is>
+          <t>python程序</t>
+        </is>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>388.4424094328782</v>
+      </c>
+      <c r="S18" s="0" t="inlineStr">
+        <is>
+          <t>主动性</t>
+        </is>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>389.9088133720803</v>
+      </c>
+      <c r="U18" s="0" t="inlineStr">
+        <is>
+          <t>表面处理工艺</t>
+        </is>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>65.8597839927949</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>word文档</t>
+        </is>
+      </c>
+      <c r="X18" t="n">
+        <v>91.05975507728552</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>145.329962550882</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>267.681309147312</v>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>801.4641702361949</v>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>计算机基础</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>72.5029065963386</v>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>java开发</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>125.108325725996</v>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>python程序</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>388.442409432878</v>
+      </c>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>计算机基础</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>72.50290659633862</v>
+      </c>
+      <c r="O19" s="0" t="inlineStr">
+        <is>
+          <t>eclipse</t>
+        </is>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>115.7348309850582</v>
+      </c>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t>springmvcspringboot</t>
+        </is>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>333.4217609687338</v>
+      </c>
+      <c r="S19" s="0" t="inlineStr">
+        <is>
+          <t>高度额责任心</t>
+        </is>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>388.9809730260322</v>
+      </c>
+      <c r="U19" s="0" t="inlineStr">
+        <is>
+          <t>敏捷的洞察力</t>
+        </is>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>62.51707274924058</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>数理分析逻辑</t>
+        </is>
+      </c>
+      <c r="X19" t="n">
+        <v>89.8173678288335</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>jvm</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>141.652686522289</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>251.696336071156</v>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>796.4452614654861</v>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>型关系型数据库</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>68.47397651156849</v>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>eclipse</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>115.734830985058</v>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>springmvcspringboot</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>333.421760968734</v>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>型关系型数据库</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>68.47397651156854</v>
+      </c>
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>面向对象思想</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>114.6675023208145</v>
+      </c>
+      <c r="Q20" s="0" t="inlineStr">
+        <is>
+          <t>计算机科学基础知识</t>
+        </is>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>281.1257845951301</v>
+      </c>
+      <c r="S20" s="0" t="inlineStr">
+        <is>
+          <t>外延产品知识</t>
+        </is>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>374.4216591583559</v>
+      </c>
+      <c r="U20" s="0" t="inlineStr">
+        <is>
+          <t>数据结构</t>
+        </is>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>61.45938886194498</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>系统配置</t>
+        </is>
+      </c>
+      <c r="X20" t="n">
+        <v>89.21127868864566</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>java基础知识</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>127.693010552525</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>idea开发工具</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>245.946565376045</v>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>java开发</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>758.997745392049</v>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>eclipse</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>62.8265208841174</v>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>面向对象思想</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>114.667502320815</v>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>java多线程</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>327.312180586203</v>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>eclipse</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>62.82652088411744</v>
+      </c>
+      <c r="O21" s="0" t="inlineStr">
+        <is>
+          <t>计算机基础</t>
+        </is>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>114.0984838242431</v>
+      </c>
+      <c r="Q21" s="0" t="inlineStr">
+        <is>
+          <t>javanio</t>
+        </is>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>280.4597764760327</v>
+      </c>
+      <c r="S21" s="0" t="inlineStr">
+        <is>
+          <t>用户导向产品意识</t>
+        </is>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>371.1016158544918</v>
+      </c>
+      <c r="U21" s="0" t="inlineStr">
+        <is>
+          <t>业务敏感度</t>
+        </is>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>60.37241129419544</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>offer知识</t>
+        </is>
+      </c>
+      <c r="X21" t="n">
+        <v>84.91769361468914</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>